--- a/cartes/Datas.xlsx
+++ b/cartes/Datas.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\1. HEG\Cours\Semestre 5\5. Patterns de conception\_Support de cours\_Pratique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\1. HEG\Cours\Semestre 5\5. Patterns de conception\_Support de cours\_Pratique\_Java\cartes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1829A9FE-CE4C-40D0-B68C-45A22BE2590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A0F4F-DD4E-43DD-8ECB-91D5BB9DAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7128" yWindow="240" windowWidth="14964" windowHeight="11868" xr2:uid="{D73E7529-354C-4014-A447-01F8DE6639C6}"/>
+    <workbookView xWindow="8784" yWindow="2484" windowWidth="13212" windowHeight="8880" xr2:uid="{D73E7529-354C-4014-A447-01F8DE6639C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,289 +53,289 @@
     <t>A4</t>
   </si>
   <si>
-    <t>4;25;44;68;90</t>
-  </si>
-  <si>
-    <t>16;24;38;55;74</t>
-  </si>
-  <si>
-    <t>6;19;33;58;76</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>1;31;43;54;60</t>
-  </si>
-  <si>
-    <t>14;41;56;71;90</t>
-  </si>
-  <si>
-    <t>2;22;35;64;73</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
-    <t>5;13;49;59;74</t>
-  </si>
-  <si>
-    <t>28;33;50;67;81</t>
-  </si>
-  <si>
-    <t>8;18;46;78;83</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>10;34;42;64;72</t>
-  </si>
-  <si>
-    <t>4;29;37;62;83</t>
-  </si>
-  <si>
-    <t>7;21;32;51;84</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
-    <t>17;21;32;58;77</t>
-  </si>
-  <si>
-    <t>7;37;48;53;61</t>
-  </si>
-  <si>
-    <t>10;26;41;65;80</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>11;23;42;54;70</t>
-  </si>
-  <si>
-    <t>5;27;59;60;75</t>
-  </si>
-  <si>
-    <t>18;34;47;63;83</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>3;26;32;46;64</t>
-  </si>
-  <si>
-    <t>15;39;51;79;86</t>
-  </si>
-  <si>
-    <t>7;48;53;65;89</t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
-    <t>24;34;57;71;85</t>
-  </si>
-  <si>
-    <t>3;14;25;47;62</t>
-  </si>
-  <si>
-    <t>6;16;38;79;89</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>19;30;44;63;72</t>
-  </si>
-  <si>
-    <t>4;23;52;76;86</t>
-  </si>
-  <si>
-    <t>15;27;39;68;82</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
-    <t>9;20;45;69;75</t>
-  </si>
-  <si>
-    <t>19;36;43;64;90</t>
-  </si>
-  <si>
-    <t>15;31;55;73;84</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>12;29;40;58;80</t>
-  </si>
-  <si>
-    <t>7;21;53;61;74</t>
-  </si>
-  <si>
-    <t>11;32;46;51;83</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>5;10;24;50;87</t>
-  </si>
-  <si>
-    <t>18;20;42;66;88</t>
-  </si>
-  <si>
-    <t>9;34;55;70;85</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>14;35;56;71;87</t>
-  </si>
-  <si>
-    <t>1;21;40;69;82</t>
-  </si>
-  <si>
-    <t>12;36;57;73;84</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>6;26;49;59;81</t>
-  </si>
-  <si>
-    <t>16;37;48;65;77</t>
-  </si>
-  <si>
-    <t>8;28;33;67;78</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>25;36;45;57;84</t>
-  </si>
-  <si>
-    <t>17;38;62;75;89</t>
-  </si>
-  <si>
-    <t>3;13;47;69;79</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>13;37;45;67;88</t>
-  </si>
-  <si>
-    <t>2;29;31;52;77</t>
-  </si>
-  <si>
-    <t>17;28;49;61;80</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>6;14;27;49;70</t>
-  </si>
-  <si>
-    <t>13;36;58;77;80</t>
-  </si>
-  <si>
-    <t>3;24;41;66;86</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>11;47;67;75;90</t>
-  </si>
-  <si>
-    <t>2;20;45;55;71</t>
-  </si>
-  <si>
-    <t>19;38;59;68;88</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>18;30;48;61;89</t>
-  </si>
-  <si>
-    <t>1;23;57;78;87</t>
-  </si>
-  <si>
-    <t>16;35;43;50;73</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>22;39;56;60;70</t>
-  </si>
-  <si>
-    <t>11;30;42;68;82</t>
-  </si>
-  <si>
-    <t>1;27;52;76;88</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
-    <t>5;26;40;63;85</t>
-  </si>
-  <si>
-    <t>9;28;33;56;74</t>
-  </si>
-  <si>
-    <t>15;31;54;65;82</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>17;39;46;69;81</t>
-  </si>
-  <si>
-    <t>8;25;44;52;79</t>
-  </si>
-  <si>
-    <t>12;22;53;60;76</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>2;23;40;51;72</t>
-  </si>
-  <si>
-    <t>12;35;54;66;87</t>
-  </si>
-  <si>
-    <t>4;29;44;63;86</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
-    <t>8;20;43;66;85</t>
-  </si>
-  <si>
-    <t>10;30;50;62;78</t>
-  </si>
-  <si>
-    <t>9;22;41;72;81</t>
+    <t>14,35,56,71,87</t>
+  </si>
+  <si>
+    <t>1,21,40,69,82</t>
+  </si>
+  <si>
+    <t>12,36,57,73,84</t>
+  </si>
+  <si>
+    <t>13,37,45,67,88</t>
+  </si>
+  <si>
+    <t>2,29,31,52,77</t>
+  </si>
+  <si>
+    <t>17,28,49,61,80</t>
+  </si>
+  <si>
+    <t>3,26,32,46,64</t>
+  </si>
+  <si>
+    <t>15,39,51,79,86</t>
+  </si>
+  <si>
+    <t>7,48,53,65,89</t>
+  </si>
+  <si>
+    <t>4,25,44,68,90</t>
+  </si>
+  <si>
+    <t>16,24,38,55,74</t>
+  </si>
+  <si>
+    <t>6,19,33,58,76</t>
+  </si>
+  <si>
+    <t>11,23,42,54,70</t>
+  </si>
+  <si>
+    <t>5,27,59,60,75</t>
+  </si>
+  <si>
+    <t>18,34,47,63,83</t>
+  </si>
+  <si>
+    <t>8,20,43,66,85</t>
+  </si>
+  <si>
+    <t>10,30,50,62,78</t>
+  </si>
+  <si>
+    <t>9,22,41,72,81</t>
+  </si>
+  <si>
+    <t>22,39,56,60,70</t>
+  </si>
+  <si>
+    <t>11,30,42,68,82</t>
+  </si>
+  <si>
+    <t>1,27,52,76,88</t>
+  </si>
+  <si>
+    <t>2,23,40,51,72</t>
+  </si>
+  <si>
+    <t>12,35,54,66,87</t>
+  </si>
+  <si>
+    <t>4,29,44,63,86</t>
+  </si>
+  <si>
+    <t>24,34,57,71,85</t>
+  </si>
+  <si>
+    <t>3,14,25,47,62</t>
+  </si>
+  <si>
+    <t>6,16,38,79,89</t>
+  </si>
+  <si>
+    <t>5,13,49,59,74</t>
+  </si>
+  <si>
+    <t>28,33,50,67,81</t>
+  </si>
+  <si>
+    <t>8,18,46,78,83</t>
+  </si>
+  <si>
+    <t>17,21,32,58,77</t>
+  </si>
+  <si>
+    <t>7,37,48,53,61</t>
+  </si>
+  <si>
+    <t>10,26,41,65,80</t>
+  </si>
+  <si>
+    <t>15,31,55,73,84</t>
+  </si>
+  <si>
+    <t>9,20,45,69,75</t>
+  </si>
+  <si>
+    <t>19,36,43,64,90</t>
+  </si>
+  <si>
+    <t>1,31,43,54,60</t>
+  </si>
+  <si>
+    <t>14,41,56,71,90</t>
+  </si>
+  <si>
+    <t>2,22,35,64,73</t>
+  </si>
+  <si>
+    <t>25,36,45,57,84</t>
+  </si>
+  <si>
+    <t>17,38,62,75,89</t>
+  </si>
+  <si>
+    <t>3,13,47,69,79</t>
+  </si>
+  <si>
+    <t>19,30,44,63,72</t>
+  </si>
+  <si>
+    <t>4,23,52,76,86</t>
+  </si>
+  <si>
+    <t>15,27,39,68,82</t>
+  </si>
+  <si>
+    <t>5,10,24,50,87</t>
+  </si>
+  <si>
+    <t>18,20,42,66,88</t>
+  </si>
+  <si>
+    <t>9,34,55,70,85</t>
+  </si>
+  <si>
+    <t>6,26,49,59,81</t>
+  </si>
+  <si>
+    <t>16,37,48,65,77</t>
+  </si>
+  <si>
+    <t>8,28,33,67,78</t>
+  </si>
+  <si>
+    <t>12,29,40,58,80</t>
+  </si>
+  <si>
+    <t>7,21,53,61,74</t>
+  </si>
+  <si>
+    <t>11,32,46,51,83</t>
+  </si>
+  <si>
+    <t>18,30,48,61,89</t>
+  </si>
+  <si>
+    <t>1,23,57,78,87</t>
+  </si>
+  <si>
+    <t>16,35,43,50,73</t>
+  </si>
+  <si>
+    <t>11,47,67,75,90</t>
+  </si>
+  <si>
+    <t>2,20,45,55,71</t>
+  </si>
+  <si>
+    <t>19,38,59,68,88</t>
+  </si>
+  <si>
+    <t>6,14,27,49,70</t>
+  </si>
+  <si>
+    <t>13,36,58,77,80</t>
+  </si>
+  <si>
+    <t>3,24,41,66,86</t>
+  </si>
+  <si>
+    <t>10,34,42,64,72</t>
+  </si>
+  <si>
+    <t>4,29,37,62,83</t>
+  </si>
+  <si>
+    <t>7,21,32,51,84</t>
+  </si>
+  <si>
+    <t>5,26,40,63,85</t>
+  </si>
+  <si>
+    <t>9,28,33,56,74</t>
+  </si>
+  <si>
+    <t>15,31,54,65,82</t>
+  </si>
+  <si>
+    <t>17,39,46,69,81</t>
+  </si>
+  <si>
+    <t>8,25,44,52,79</t>
+  </si>
+  <si>
+    <t>12,22,53,60,76</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE3979-4EDC-4196-881C-CF815558EF62}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,44 +731,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,299 +776,300 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/cartes/Datas.xlsx
+++ b/cartes/Datas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\1. HEG\Cours\Semestre 5\5. Patterns de conception\_Support de cours\_Pratique\_Java\cartes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Librairie\MyLotoTCK\cartes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97A0F4F-DD4E-43DD-8ECB-91D5BB9DAF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBB689D-5A16-4EE5-AD63-203F911498A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8784" yWindow="2484" windowWidth="13212" windowHeight="8880" xr2:uid="{D73E7529-354C-4014-A447-01F8DE6639C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D73E7529-354C-4014-A447-01F8DE6639C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -706,16 +706,16 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -743,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -757,7 +757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -771,7 +771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -799,7 +799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -813,7 +813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -841,7 +841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -869,7 +869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -883,7 +883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -911,7 +911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -925,7 +925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -939,7 +939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -953,7 +953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -995,7 +995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
